--- a/MINIMO.xlsx
+++ b/MINIMO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francois\Desktop\SmartLCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francois\Documents\PlatformIO\Projects\minimo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="CONTRL_TO_LCD data" sheetId="1" r:id="rId1"/>
@@ -1286,8 +1286,8 @@
   <dimension ref="A1:AU506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S156" sqref="S156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X4:X35" si="8">HEX2DEC(M5)-HEX2DEC(N5)</f>
+        <f t="shared" ref="X5:X35" si="8">HEX2DEC(M5)-HEX2DEC(N5)</f>
         <v>68</v>
       </c>
       <c r="Y5">
@@ -46675,8 +46675,8 @@
   <dimension ref="A1:T238"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57149,7 +57149,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MINIMO.xlsx
+++ b/MINIMO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="13620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CONTRL_TO_LCD data" sheetId="1" r:id="rId1"/>
@@ -1285,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S156" sqref="S156"/>
     </sheetView>
@@ -57327,7 +57327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
@@ -60873,7 +60873,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
